--- a/excel/booklist2022.xlsx
+++ b/excel/booklist2022.xlsx
@@ -9,8 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="גני ילדים צעירים" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="גני ילדים בוגרים" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="כיתות א –ג" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="כיתות ד –ו" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" כיתות ז –ט" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" כיתות ד –ו" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" כיתות ז –ט" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="כיתות ז –ט ממ&quot;ד" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="כיתות י –יב" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="כיתות י –יב ממ&quot;ד" sheetId="8" state="visible" r:id="rId8"/>
@@ -1150,7 +1150,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ברווזונת מת-גע-גע-ת / שינברג טובה</t>
+          <t>ברוזנת מת-גע-גע-ת / שינברג טובה</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>עולם מלא בפלסטליק / ליטון ניל</t>
+          <t>עולם מלא בפלסטיק / מאת: ניל ליטון ; מאנגלית: מיכל אסייג ; עריכת תרגום: חמוטל לוין ; עריכה לשונית: רותי חזנוביץ'.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>אסייג, מיכל  (מתרגם)  $$Qאסייג, מיכל</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21341746030005171</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21341746030005171</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ליטון, ניל מחבר מאייר$$Qליטון, ניל</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plastics -- Juvenile literature; Plastics -- Recycling -- Juvenile literature; Plastic scrap -- Juvenile literature; Environmental protection -- Juvenile literature</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12345906490005171</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>32 עמודים לא ממוספרים : איורים צבעוניים ; 27 ס"מ</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>תש"ף 2020</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[תל אביב] : מטר</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>997008727883405171</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21341746030005171</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3355,72 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>סופי והקשת בענן / סיקס ג'ולי</t>
+          <t>סופיה וקשת בענן / מאת: ג'ולי סיקס ; אירה: לוסי טרומן ; מאנגלית: שהם סמיט ואמנון כץ.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>טרומן, לוסי  (מאייר)  $$Qטרומן, לוסי</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21258460180005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21258460180005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>סייקס, ג'ולי מחבר$$Qסייקס, ג'ולי</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew; Unicorns -- Juvenile fiction; Magic -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305206460005171</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>112 עמודים : איורים ; 20 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[2018]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>חבל מודיעין : כנרת בית הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990047768880205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21258460180005171</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3878,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>לאונרדו וגל / אוסובסקי אסתי</t>
+          <t>לאונרדו וגל / אסתי אוסובסקי ; עריכה: יונה טפר.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>טפר, יונה, 1941-  (עורך)  $$Qטפר, יונה, 1941-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21381628580005171</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21381628580005171</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>אוסובסקי, אסתי מחבר$$Qאוסובסקי, אסתי</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Leonardo, da Vinci, 1452-1519 -- Juvenile fiction; Time travel -- Juvenile fiction; Adventure stories; Attention-deficit-disordered children -- Juvenile fiction; Children's stories, Hebrew -- 21st century; Missing persons -- Juvenile fiction; Fathers and sons -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12382328620005171</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>106 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20200101</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Tel Aviv : הוצאת הקיבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>997009395351505171</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21381628580005171</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4382,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ליבי / ליבוביץ' הדס</t>
+          <t>ליבי, או: מה קרה ביום הכי מעצבן בשנה / הדס ליבוביץ' ; איורים: דניאל פלג ; עריכה: יונה טפר.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>פלג, דניאל, 1987-  (מאייר)  $$Qפלג, דניאל, 1987-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21382514590005171</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21382514590005171</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ליבוביץ', הדס, 1971- מחבר$$Qליבוביץ', הדס, 1971-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Schoolgirls -- Juvenile fiction; Friendship -- Juvenile fiction; Schools -- Juvenile fiction; Cats -- Juvenile fiction; Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12391153350005171</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>102 עמודים, 2 עמודים לא ממוספרים : איורים ; 22 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>תשפ"א 2021</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>בני ברק : הוצאת הקבוץ המאוחד</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>997009463211905171</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21382514590005171</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4814,72 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>זלמן אדם צעיר / פרימו רינת</t>
+          <t>זלמן / רינת פרימו, עדי אלקין.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>אלקין, עדי  (מאייר)  $$Qאלקין, עדי</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21341985970005171</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21341985970005171</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>פרימו, רינת מחבר$$Qפרימו, רינת</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Student newspapers and periodicals -- Juvenile fiction; Schools -- Juvenile fiction; Friendship -- Juvenile fiction; Children's stories, Hebrew -- 21st century</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12346884260005171</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>143 עמודים : איורים צבעוניים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20200101</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>מודיעין : אדם צעיר</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>997008745330905171</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21341985970005171</t>
         </is>
       </c>
     </row>
@@ -5876,7 +6201,72 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>הרעיון של כריסטי / מרטין אן מ'</t>
+          <t>הרעיון של קריסטי / אן מ' מרטין ; מאנגלית: דנה טל.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>טל, דנה, 1980-  (מתרגם)  $$Qטל, דנה, 1980-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21344363630005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21344363630005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>מרטין, אן מ., 1955- מחבר$$Qמרטין, אן מ., 1955-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>American fiction -- Translations into Hebrew; Babysitters Club (Imaginary organization) -- Juvenile fiction; Girls -- Juvenile fiction; Babysitting -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12346851700005171</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>160 עמודים ; 20 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20200101</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>חבל מודיעין : כנרת בית הוצאה לאור</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>997008859830205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21344363630005171</t>
         </is>
       </c>
     </row>
@@ -5955,42 +6345,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>החתן המיועד / אנני ווסט ; תרגום: ענת הודיה צימט ; עריכת לשון: שי קמלגרן.</t>
+          <t>המיועדת / קיארה קאס ; מאנגלית: אורה דנקנר ; עריכת התרגום: ענבל מלכה.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>צימט, ענת הודיה  (מתרגם)  $$Qצימט, ענת הודיה</t>
+          <t>דנקנר, אורה  (מתרגם)  $$Qדנקנר, אורה</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21397915100005171</t>
+          <t>NNL_ALEPH21404043890005171</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21397915100005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21404043890005171</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ווסט, אן מחבר$$Qווסט, אן</t>
+          <t>קאס, קיארה מחבר$$Qקאס, קיארה</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Romance fiction; Man-woman relationships; Husband and wife -- Fiction; Australian fiction -- Translations into Hebrew</t>
+          <t>American fiction -- Translations into Hebrew; Kings and rulers -- Fiction; Romance fiction</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12479297270005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12444336970005171</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>209 עמודים ; 21 ס"מ.</t>
+          <t>320 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -6000,7 +6390,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>רמת גן : שלגי מוציאים לאור</t>
+          <t>ראשון לציון : משכל הוצאה לאור מייסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -6010,7 +6400,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>997009705771805171</t>
+          <t>997009845957405171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -6020,7 +6410,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21397915100005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21404043890005171</t>
         </is>
       </c>
     </row>
@@ -7414,7 +7804,72 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>הבריחה / שטרייט וורצל אסתר</t>
+          <t>הבריחה / אסתר שטרייט-וורצל.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21275098550005171</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21275098550005171</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>שטרייט-וורצל, אסתר, 1932-2013$$Qשטרייט-וורצל, אסתר, 1932-2013</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>189 עמודים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>19890101</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>תל-אביב : עמיחי</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>990011458180205171</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8831,72 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>חוט של חסד / נוביק נעמי</t>
+          <t>חוט של כסף / נעמי נוביק ; תרגמה מאנגלית: יעל אכמון ; עריכת תרגום: מורן שין.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>אכמון, יעל  (מתרגם)  $$Qאכמון, יעל</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21172824930005171</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21172824930005171</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>נוביק, נעמי, 1973- מחבר$$Qנוביק, נעמי, 1973-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>American fiction -- Translations into Hebrew; Moneylenders -- Fiction; Magic -- Fiction; Fantasy fiction</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303149890005171</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>516 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20190101</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>אבן יהודה : תמיר//סנדיק ; ראשון לציון : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>990050767000205171</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21172824930005171</t>
         </is>
       </c>
     </row>
@@ -8599,7 +9119,72 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>נבוא לקחת אותך / רוזנטל ברנדייס דנה</t>
+          <t>נבוא לקחת אותך / דנה רוזנטל ברנדייס ; עריכה: רותם בירון.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>בירון, רותם  (עורך)  $$Qבירון, רותם</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21378757260005171</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21378757260005171</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>רוזנטל-ברנדייס, דנה, 1967- מחבר$$Qרוזנטל-ברנדייס, דנה, 1967-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Holocaust, Jewish (1939-1945) -- Fiction; Holocaust, Jewish (1939-1945) -- Rescue -- Fiction; Kindertransports (Rescue operations) -- Great Britain -- Fiction; Jewish children -- Scotland -- Fiction</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12380210240005171</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>382 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>תש"ף 2020</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[ישראל] : [מוציא לאור לא ידוע]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>997008869840805171</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21378757260005171</t>
         </is>
       </c>
     </row>
